--- a/src/main/resources/templates/xlsx/2차전형결과.xlsx
+++ b/src/main/resources/templates/xlsx/2차전형결과.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimhanul/maru/src/main/resources/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeon-yujin/Documents/workspace/backend/springboot/maru/src/main/resources/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB85765-2C8C-0940-9637-587765EAFEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F52063-F22D-BF42-8945-86AF738BCAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17800" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>수험번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교과성적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 전형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 전형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,19 +232,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -249,11 +244,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,12 +264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -346,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -452,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -594,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,124 +594,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8EB960-16E4-4546-BE22-CABF45F1D2EB}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="30" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
+    <row r="9" spans="1:20">
+      <c r="P9" t="s">
         <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="P9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
